--- a/medicine/Enfance/Georges_Fath/Georges_Fath.xlsx
+++ b/medicine/Enfance/Georges_Fath/Georges_Fath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore Georges Fath (Paris, 22 janvier 1818 - Maisons-Laffitte, 29 juin 1900[1]) est un auteur dramatique, illustrateur et écrivain français, arrière-grand-père de Jacques Fath.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Georges Fath (Paris, 22 janvier 1818 - Maisons-Laffitte, 29 juin 1900) est un auteur dramatique, illustrateur et écrivain français, arrière-grand-père de Jacques Fath.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie d'abord la sculpture et se fait connaître en 1840 avec un drame La Femme de l'émigré. 
 En dehors de ses propres ouvrages, Fath illustre les Contes d'une vieille fille à ses neveux de Delphine de Girardin, avec Gustave Doré pour Michel Lévy (1866), les Historiettes véritables pour les enfants de quatre à huit ans de Zulma Carraud (1879) et les Jeux et exercices des jeunes filles de Madame de Chabreul pour Hachette (1890), Jocrisse et sa sœur de Pierre-Jules Hetzel (1878) ou encore Un petit-fils de Robinson de Philibert Audebrand en collaboration de Aloys Fellmann pour les éditions Lefèvre (1878).
@@ -544,16 +558,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Femme de l'émigré, drame en 2 actes mêlé de chants, avec Adolphe Guénée, 1840
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Femme de l'émigré, drame en 2 actes mêlé de chants, avec Adolphe Guénée, 1840
 De Charybde en Scylla, vaudeville, 1844
 Les Nains célèbres depuis l'antiquité, jusques et y compris Tom-Pouce, Havard, 1845
 Partie à trois, comédie en un acte, mêlée de couplets, avec Eugène Nus et Auguste Follet, 1847
 La Mort de Chatterton, drame en vers, Havard, 1849
 La Prison de Schlusselbourg, 1855
 Le Dernier jour d'une monarchie, drame en cinq actes, avec Auriol, 1856
-Les Brûleurs de villes, 1863, dans L'Écho des feuilletons: recueil de nouvelles, légendes, anecdotes, épisodes, etc., Paris, 1865,  [1]
+Les Brûleurs de villes, 1863, dans L'Écho des feuilletons: recueil de nouvelles, légendes, anecdotes, épisodes, etc., Paris, 1865,  
 La Sagesse des enfants, proverbes, Hachette, 1865
 Gredin de Pigoche !, opérette en 1 acte, avec Michel Masson, 1867
 Pierrot à l'école, Magasin d'éducation et de récréation, Hetzel, 1868
@@ -571,7 +587,7 @@
 Les Cataractes de l'Obi, voyage dans les steppes sibériennes, Plon, 1882
 Les Études de Petit-Pierre, texte et dessins, Delagrave, 1883
 La Sagesse des enfants, proverbes, texte et illustrations, Hachette, 1885
-Bernard, la gloire de son village, Hachette, 1888 [2]</t>
+Bernard, la gloire de son village, Hachette, 1888 </t>
         </is>
       </c>
     </row>
